--- a/cypress/fixtures/VacancyAttachment.xlsx
+++ b/cypress/fixtures/VacancyAttachment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\OrangeHRM\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F086B2C-5790-4703-8E51-D0C01A98DF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B1A38-AE4E-4284-955F-C1891972F1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{AFDE31E3-DC47-4BBC-A794-F0FBD2B6AEE2}"/>
   </bookViews>
@@ -36,9 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Mohammad Abohasan Attachment</t>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>Saed</t>
+  </si>
+  <si>
+    <t>Abohasan</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -55,33 +67,29 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Bahnschrift SemiBold"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Bahnschrift SemiBold"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -89,119 +97,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,56 +424,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C994EF-62AF-4857-9E63-48DC8F52609E}">
-  <dimension ref="C4:G9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:G9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>